--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1212930.436237217</v>
+        <v>1229575.555540906</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111181</v>
+        <v>713587.7684111177</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5698013.498448977</v>
+        <v>5698013.498448978</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="3">
@@ -741,13 +743,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>85.31372784089211</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.48515950437164</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>24.7554325077908</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,64 +895,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>7.912663263359809</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>28.22026098022347</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1218,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>80.47961400380896</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>23.26470831312118</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1415,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
         <v>220.5164804230398</v>
@@ -1430,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>312.9379844122245</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>196.7078839772084</v>
       </c>
     </row>
     <row r="12">
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1509,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>48.98427584501901</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>15.13518083054824</v>
       </c>
     </row>
     <row r="13">
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>103.3249685652703</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>21.38816470214945</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>167.6422243778977</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>66.17054555350505</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>88.00880902957816</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>48.98427584501901</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.38816470214931</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R16" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.06064116356414</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>47.74806282379132</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>278.826569784421</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1932,10 +1934,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>79.38675458590474</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>181.6683644804151</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>73.36175976093789</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>73.36175976093791</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>127.7128928383624</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>145.1437230760809</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
@@ -2214,7 +2216,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>110.8068327700971</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G23" t="n">
-        <v>37.38024056300711</v>
-      </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>185.5869959907141</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,22 +2399,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>78.54202280713804</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>99.72414081464804</v>
+        <v>79.51464775559467</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="U25" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2567,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>158.4267777054074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>80.34810063893731</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2646,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>78.5796798847438</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>147.0557851781</v>
       </c>
     </row>
     <row r="28">
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6221850809705</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>38.92321710192613</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>54.83272174132907</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2886,10 +2888,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>50.56371181340702</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>190.7949231073267</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2962,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6221850809705</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>24.01066093403965</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>135.9515688379222</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>180.1449230874441</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>165.8272126914158</v>
@@ -3162,19 +3164,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>189.2585661510621</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>92.58702404235417</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.19479062707042</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>173.1945231188782</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>68.60976267518207</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3360,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>53.36195138690143</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>192.7772436646479</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>99.94109751948886</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>56.06257007945304</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,22 +3587,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>77.85054345335674</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>81.12752273267785</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.6221850809707</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>33.64439241526548</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>85.67417889435364</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>85.67417889435359</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3828,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>24.96771041591047</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.5082133614309</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>9.332058976593611</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.1095063207656</v>
       </c>
       <c r="U44" t="n">
-        <v>192.6254374377232</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>81.12752273267782</v>
+        <v>38.63390737268197</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>38.97640474817491</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0815197256143</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C3" t="n">
-        <v>413.6284904444873</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="D3" t="n">
-        <v>264.694080783236</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="E3" t="n">
-        <v>105.4566257777805</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4416,43 +4418,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4507,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4623,22 +4625,22 @@
         <v>313.2932483084068</v>
       </c>
       <c r="C6" t="n">
-        <v>138.8402190272798</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="D6" t="n">
-        <v>138.8402190272798</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="E6" t="n">
-        <v>138.8402190272798</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
-        <v>138.8402190272798</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>138.8402190272798</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4653,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>304.9965798960495</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C9" t="n">
-        <v>304.9965798960495</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D9" t="n">
-        <v>304.9965798960495</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E9" t="n">
-        <v>304.9965798960495</v>
+        <v>328.0462318675013</v>
       </c>
       <c r="F9" t="n">
-        <v>304.9965798960495</v>
+        <v>181.5116738943863</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>42.7808484770018</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X9" t="n">
-        <v>512.7568786610034</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y9" t="n">
-        <v>304.9965798960495</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521494</v>
+        <v>70.13987180521511</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T11" t="n">
-        <v>1286.226725594945</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U11" t="n">
-        <v>1032.389842527199</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="V11" t="n">
-        <v>701.3269551836285</v>
+        <v>617.7539981240844</v>
       </c>
       <c r="W11" t="n">
-        <v>348.5582999135143</v>
+        <v>617.7539981240844</v>
       </c>
       <c r="X11" t="n">
-        <v>32.45932575975218</v>
+        <v>617.7539981240844</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.45932575975218</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="12">
@@ -5115,52 +5117,52 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384405</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M12" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V12" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W12" t="n">
-        <v>1573.487221477489</v>
+        <v>1173.163483952</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.635721271956</v>
+        <v>1173.163483952</v>
       </c>
       <c r="Y12" t="n">
         <v>1157.875422507002</v>
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="C13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="D13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="E13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="F13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="G13" t="n">
-        <v>256.8779464865154</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8779464865154</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="I13" t="n">
         <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5209,40 +5211,40 @@
         <v>187.235757098444</v>
       </c>
       <c r="N13" t="n">
-        <v>270.9687512285709</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O13" t="n">
         <v>332.2934283710737</v>
       </c>
       <c r="P13" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q13" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642186</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="U13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="V13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300191</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1169.527513020957</v>
+        <v>1135.504886953098</v>
       </c>
       <c r="C14" t="n">
-        <v>800.5649960805454</v>
+        <v>1135.504886953098</v>
       </c>
       <c r="D14" t="n">
-        <v>442.2992974737949</v>
+        <v>777.2391883463476</v>
       </c>
       <c r="E14" t="n">
-        <v>442.2992974737949</v>
+        <v>391.4509357481034</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1556.127353085079</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T14" t="n">
-        <v>1556.127353085079</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U14" t="n">
-        <v>1556.127353085079</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V14" t="n">
-        <v>1556.127353085079</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W14" t="n">
-        <v>1556.127353085079</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X14" t="n">
-        <v>1556.127353085079</v>
+        <v>1135.504886953098</v>
       </c>
       <c r="Y14" t="n">
-        <v>1556.127353085079</v>
+        <v>1135.504886953098</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L15" t="n">
-        <v>147.3709770270845</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313474</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O15" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U15" t="n">
-        <v>1622.966287987609</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V15" t="n">
-        <v>1622.966287987609</v>
+        <v>791.2062683570043</v>
       </c>
       <c r="W15" t="n">
-        <v>1573.487221477489</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="X15" t="n">
-        <v>1365.635721271956</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.875422507002</v>
+        <v>121.357112658316</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5458,28 +5460,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1622.966287987609</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="C17" t="n">
-        <v>1622.966287987609</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D17" t="n">
-        <v>1574.735921498931</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E17" t="n">
-        <v>1188.947668900687</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F17" t="n">
-        <v>779.107697186644</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G17" t="n">
-        <v>369.2677254726013</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.966287987609</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W17" t="n">
-        <v>1622.966287987609</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="X17" t="n">
-        <v>1622.966287987609</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.966287987609</v>
+        <v>222.1153555684087</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>989.6600854869342</v>
+        <v>784.9017952688528</v>
       </c>
       <c r="C18" t="n">
-        <v>815.2070562058072</v>
+        <v>610.4487659877258</v>
       </c>
       <c r="D18" t="n">
-        <v>666.272646544556</v>
+        <v>461.5143563264745</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>302.276901321019</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>302.276901321019</v>
       </c>
       <c r="G18" t="n">
         <v>222.0882603251556</v>
@@ -5592,16 +5594,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>147.3709770270845</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313474</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N18" t="n">
         <v>948.4732699082806</v>
@@ -5616,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U18" t="n">
-        <v>989.6600854869342</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V18" t="n">
-        <v>989.6600854869342</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W18" t="n">
-        <v>989.6600854869342</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X18" t="n">
-        <v>989.6600854869342</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y18" t="n">
-        <v>989.6600854869342</v>
+        <v>953.1171322889209</v>
       </c>
     </row>
     <row r="19">
@@ -5704,13 +5706,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="X19" t="n">
         <v>32.45932575975218</v>
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.45932575975218</v>
+        <v>571.3022195327469</v>
       </c>
       <c r="C20" t="n">
-        <v>32.45932575975218</v>
+        <v>571.3022195327469</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45932575975218</v>
+        <v>571.3022195327469</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975218</v>
+        <v>571.3022195327469</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975218</v>
+        <v>161.4622478187041</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>161.4622478187041</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>161.4622478187041</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5774,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T20" t="n">
-        <v>1476.356466698639</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U20" t="n">
-        <v>1476.356466698639</v>
+        <v>1255.133762146432</v>
       </c>
       <c r="V20" t="n">
-        <v>1145.293579355068</v>
+        <v>924.0708748028611</v>
       </c>
       <c r="W20" t="n">
-        <v>792.5249240849539</v>
+        <v>571.3022195327469</v>
       </c>
       <c r="X20" t="n">
-        <v>419.059165823874</v>
+        <v>571.3022195327469</v>
       </c>
       <c r="Y20" t="n">
-        <v>419.059165823874</v>
+        <v>571.3022195327469</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>445.4851866192014</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="C21" t="n">
-        <v>271.0321573380744</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="D21" t="n">
-        <v>271.0321573380744</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
         <v>61.20822116384403</v>
@@ -5841,40 +5843,40 @@
         <v>934.1153971668618</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O21" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1254.561044051268</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V21" t="n">
-        <v>1019.408935819526</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W21" t="n">
-        <v>765.171579091324</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X21" t="n">
-        <v>653.2454853841552</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y21" t="n">
-        <v>445.4851866192014</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5935,25 +5937,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W22" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1202.653768535401</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C23" t="n">
-        <v>1202.653768535401</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D23" t="n">
-        <v>1202.653768535401</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E23" t="n">
-        <v>816.8655159371563</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F23" t="n">
-        <v>407.0255442231135</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
         <v>32.45932575975218</v>
@@ -5987,16 +5989,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6014,25 +6016,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1202.653768535401</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V23" t="n">
-        <v>1202.653768535401</v>
+        <v>1181.667792808031</v>
       </c>
       <c r="W23" t="n">
-        <v>1202.653768535401</v>
+        <v>828.8991375379167</v>
       </c>
       <c r="X23" t="n">
-        <v>1202.653768535401</v>
+        <v>828.8991375379167</v>
       </c>
       <c r="Y23" t="n">
-        <v>1202.653768535401</v>
+        <v>828.8991375379167</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>830.4226304814787</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="C24" t="n">
-        <v>655.9696012003517</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="D24" t="n">
-        <v>507.0351915391004</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="E24" t="n">
-        <v>507.0351915391004</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F24" t="n">
-        <v>360.5006335659854</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G24" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H24" t="n">
         <v>111.7947023326189</v>
@@ -6069,10 +6071,10 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L24" t="n">
-        <v>534.6972605625989</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M24" t="n">
         <v>546.7891136313474</v>
@@ -6090,28 +6092,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1273.335037478175</v>
+        <v>1542.648461971857</v>
       </c>
       <c r="U24" t="n">
-        <v>1273.335037478175</v>
+        <v>1314.445794509335</v>
       </c>
       <c r="V24" t="n">
-        <v>1038.182929246433</v>
+        <v>1079.293686277593</v>
       </c>
       <c r="W24" t="n">
-        <v>1038.182929246433</v>
+        <v>825.056329549391</v>
       </c>
       <c r="X24" t="n">
-        <v>1038.182929246433</v>
+        <v>617.2048293438581</v>
       </c>
       <c r="Y24" t="n">
-        <v>830.4226304814787</v>
+        <v>409.4445305789042</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>1583.375590384508</v>
       </c>
       <c r="U25" t="n">
-        <v>72.05002336285361</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.45932575975218</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975218</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>529.2947736598815</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>192.4863739470323</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K26" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6248,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>503.7583553506521</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W26" t="n">
-        <v>422.5986577355639</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X26" t="n">
-        <v>422.5986577355639</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.45932575975218</v>
+        <v>939.1347453739243</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>771.9123356732376</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C27" t="n">
-        <v>597.4593063921106</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D27" t="n">
-        <v>448.5248967308594</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E27" t="n">
-        <v>289.2874417254039</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F27" t="n">
-        <v>142.7528837522889</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G27" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
@@ -6312,43 +6314,43 @@
         <v>358.9399761455072</v>
       </c>
       <c r="M27" t="n">
-        <v>546.7891136313474</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082806</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T27" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U27" t="n">
-        <v>1227.261385483253</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V27" t="n">
-        <v>1227.261385483253</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="W27" t="n">
-        <v>1227.261385483253</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="X27" t="n">
-        <v>1147.887971458259</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="Y27" t="n">
-        <v>940.1276726933056</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>1455.671151542184</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M28" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N28" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S28" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T28" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U28" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V28" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W28" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X28" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1236.366447923487</v>
+        <v>738.230242413013</v>
       </c>
       <c r="C29" t="n">
-        <v>867.4039309830757</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D29" t="n">
-        <v>828.0875500720392</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E29" t="n">
-        <v>442.2992974737949</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F29" t="n">
-        <v>442.2992974737949</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K29" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6491,22 +6493,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.966287987609</v>
+        <v>793.6168300305171</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.966287987609</v>
+        <v>738.230242413013</v>
       </c>
       <c r="Y29" t="n">
-        <v>1622.966287987609</v>
+        <v>738.230242413013</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>930.4409838715762</v>
+        <v>800.0311509215306</v>
       </c>
       <c r="C30" t="n">
-        <v>755.9879545904492</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D30" t="n">
-        <v>607.053544929198</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E30" t="n">
-        <v>447.8160899237425</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F30" t="n">
-        <v>301.2815319506275</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G30" t="n">
-        <v>162.8691587097977</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M30" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P30" t="n">
         <v>1622.966287987609</v>
@@ -6564,28 +6566,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U30" t="n">
-        <v>1541.568727888341</v>
+        <v>1430.244143434754</v>
       </c>
       <c r="V30" t="n">
-        <v>1306.416619656598</v>
+        <v>1430.244143434754</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.416619656598</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="X30" t="n">
-        <v>1306.416619656598</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="Y30" t="n">
-        <v>1098.656320891644</v>
+        <v>968.2464879415986</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="C31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="D31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="E31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="F31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="G31" t="n">
-        <v>1455.671151542184</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144411</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144411</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K31" t="n">
         <v>1302.533129726572</v>
@@ -6649,22 +6651,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="X31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="Y31" t="n">
-        <v>1622.966287987609</v>
+        <v>1393.858948907497</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>800.5649960805454</v>
+        <v>506.5925424806035</v>
       </c>
       <c r="C32" t="n">
-        <v>800.5649960805454</v>
+        <v>506.5925424806035</v>
       </c>
       <c r="D32" t="n">
-        <v>442.2992974737949</v>
+        <v>506.5925424806035</v>
       </c>
       <c r="E32" t="n">
-        <v>442.2992974737949</v>
+        <v>506.5925424806035</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>506.5925424806035</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>506.5925424806035</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975218</v>
+        <v>169.7841427677544</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
         <v>70.13987180521505</v>
@@ -6728,22 +6730,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1441.001719212413</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1187.164836144667</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>1187.164836144667</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>1187.164836144667</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X32" t="n">
-        <v>1187.164836144667</v>
+        <v>896.7318744564152</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.164836144667</v>
+        <v>506.5925424806035</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.45932575975218</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M33" t="n">
-        <v>934.1153971668618</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U33" t="n">
-        <v>944.9608164894781</v>
+        <v>1063.390775211812</v>
       </c>
       <c r="V33" t="n">
-        <v>709.8087082577354</v>
+        <v>828.2386669800692</v>
       </c>
       <c r="W33" t="n">
-        <v>616.2864617503069</v>
+        <v>574.0013102518675</v>
       </c>
       <c r="X33" t="n">
-        <v>408.4349615447741</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="Y33" t="n">
-        <v>200.6746627798202</v>
+        <v>366.1498100463347</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V34" t="n">
-        <v>1583.596182181372</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>968.7637269953004</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="C35" t="n">
-        <v>968.7637269953004</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D35" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E35" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F35" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011315</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528321</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941452</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6962,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1448.022325241267</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1448.022325241267</v>
       </c>
       <c r="U35" t="n">
-        <v>1369.129404919863</v>
+        <v>1448.022325241267</v>
       </c>
       <c r="V35" t="n">
-        <v>1038.066517576292</v>
+        <v>1116.959437897697</v>
       </c>
       <c r="W35" t="n">
-        <v>1038.066517576292</v>
+        <v>764.1907826275826</v>
       </c>
       <c r="X35" t="n">
-        <v>968.7637269953004</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="Y35" t="n">
-        <v>968.7637269953004</v>
+        <v>390.7250243665027</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>568.9851807044561</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C36" t="n">
-        <v>394.5321514233291</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D36" t="n">
-        <v>245.5977417620778</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E36" t="n">
-        <v>86.36028675662232</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F36" t="n">
-        <v>86.36028675662232</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G36" t="n">
-        <v>86.36028675662232</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
         <v>32.45932575975218</v>
@@ -7017,22 +7019,22 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497702</v>
+        <v>636.3836421851986</v>
       </c>
       <c r="N36" t="n">
-        <v>1160.042269026703</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O36" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7050,16 +7052,16 @@
         <v>944.9608164894781</v>
       </c>
       <c r="V36" t="n">
-        <v>944.9608164894781</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W36" t="n">
-        <v>944.9608164894781</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="X36" t="n">
-        <v>944.9608164894781</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="Y36" t="n">
-        <v>737.2005177245242</v>
+        <v>515.0842197075859</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="H37" t="n">
         <v>32.45932575975218</v>
@@ -7123,22 +7125,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.1077905899919</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>880.0583007416833</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C38" t="n">
-        <v>880.0583007416833</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D38" t="n">
-        <v>880.0583007416833</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E38" t="n">
-        <v>880.0583007416833</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F38" t="n">
-        <v>470.2183290276406</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
         <v>519.4894913528326</v>
@@ -7199,25 +7201,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1566.337429321495</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1343.593509702263</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>1089.756626634517</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.966287987609</v>
+        <v>758.6937392909463</v>
       </c>
       <c r="W38" t="n">
-        <v>1270.197632717495</v>
+        <v>405.9250840208321</v>
       </c>
       <c r="X38" t="n">
-        <v>1270.197632717495</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y38" t="n">
-        <v>880.0583007416833</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>206.9123550408792</v>
+        <v>878.668063500679</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975218</v>
+        <v>704.215034219552</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975218</v>
+        <v>555.2806245583007</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975218</v>
+        <v>396.0431695528452</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>249.5086115797302</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.0962383389004</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.0962383389004</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L39" t="n">
-        <v>505.948365158507</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M39" t="n">
-        <v>905.36650176277</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N39" t="n">
-        <v>1299.952780813051</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O39" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
         <v>1622.966287987609</v>
@@ -7275,28 +7277,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1541.019295328339</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T39" t="n">
-        <v>1340.116286433832</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U39" t="n">
-        <v>1111.91361897131</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="V39" t="n">
-        <v>876.7615107395675</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="W39" t="n">
-        <v>622.5241540113659</v>
+        <v>1086.428362265633</v>
       </c>
       <c r="X39" t="n">
-        <v>414.6726538058331</v>
+        <v>1086.428362265633</v>
       </c>
       <c r="Y39" t="n">
-        <v>206.9123550408792</v>
+        <v>878.668063500679</v>
       </c>
     </row>
     <row r="40">
@@ -7315,25 +7317,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="E40" t="n">
-        <v>213.333508020557</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F40" t="n">
-        <v>66.44356052264661</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G40" t="n">
-        <v>66.44356052264661</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H40" t="n">
-        <v>66.44356052264661</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>759.6875413069145</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="C41" t="n">
-        <v>390.7250243665027</v>
+        <v>477.2645990072639</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975218</v>
+        <v>118.9989004005134</v>
       </c>
       <c r="E41" t="n">
         <v>32.45932575975218</v>
@@ -7409,16 +7411,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7451,10 +7453,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="X41" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y41" t="n">
-        <v>1146.287381371036</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.0842197075859</v>
+        <v>825.2510604325514</v>
       </c>
       <c r="C42" t="n">
-        <v>340.6311904264589</v>
+        <v>650.7980311514244</v>
       </c>
       <c r="D42" t="n">
-        <v>191.6967807652077</v>
+        <v>501.8636214901732</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975218</v>
+        <v>342.6261664847177</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975218</v>
+        <v>196.0916085116026</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975218</v>
+        <v>57.67923527077286</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975218</v>
@@ -7488,13 +7490,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>147.3709770270845</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3709770270845</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
         <v>546.7891136313474</v>
@@ -7512,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1380.449320452552</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1380.449320452552</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U42" t="n">
-        <v>1380.449320452552</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V42" t="n">
-        <v>1145.297212220809</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="W42" t="n">
-        <v>891.0598554926078</v>
+        <v>1201.226696217573</v>
       </c>
       <c r="X42" t="n">
-        <v>891.0598554926078</v>
+        <v>1201.226696217573</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.2995567276539</v>
+        <v>993.4663974526195</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975218</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="C43" t="n">
         <v>32.45932575975218</v>
@@ -7588,31 +7590,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T43" t="n">
-        <v>132.1392625228377</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U43" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V43" t="n">
-        <v>32.45932575975218</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="W43" t="n">
-        <v>32.45932575975218</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="X43" t="n">
-        <v>32.45932575975218</v>
+        <v>41.88564795833159</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975218</v>
+        <v>41.88564795833159</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1041.795298996494</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C44" t="n">
-        <v>1041.795298996494</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D44" t="n">
-        <v>1041.795298996494</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E44" t="n">
-        <v>1041.795298996494</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F44" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975218</v>
@@ -7676,22 +7678,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1403.663756350472</v>
       </c>
       <c r="U44" t="n">
-        <v>1428.395139060616</v>
+        <v>1149.826873282726</v>
       </c>
       <c r="V44" t="n">
-        <v>1428.395139060616</v>
+        <v>1149.826873282726</v>
       </c>
       <c r="W44" t="n">
-        <v>1428.395139060616</v>
+        <v>1149.826873282726</v>
       </c>
       <c r="X44" t="n">
-        <v>1428.395139060616</v>
+        <v>1149.826873282726</v>
       </c>
       <c r="Y44" t="n">
-        <v>1428.395139060616</v>
+        <v>759.6875413069145</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>288.8593477001497</v>
+        <v>810.9364845345326</v>
       </c>
       <c r="C45" t="n">
-        <v>114.4063184190227</v>
+        <v>636.4834552534056</v>
       </c>
       <c r="D45" t="n">
-        <v>114.4063184190227</v>
+        <v>487.5490455921544</v>
       </c>
       <c r="E45" t="n">
-        <v>114.4063184190227</v>
+        <v>328.3115905866989</v>
       </c>
       <c r="F45" t="n">
-        <v>114.4063184190227</v>
+        <v>181.7770326135838</v>
       </c>
       <c r="G45" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975218</v>
@@ -7728,22 +7730,22 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M45" t="n">
-        <v>758.3581127497702</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N45" t="n">
-        <v>1160.042269026703</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O45" t="n">
-        <v>1483.055776201262</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1578.043302647803</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7755,22 +7757,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1422.063279093102</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U45" t="n">
-        <v>1193.860611630581</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V45" t="n">
-        <v>958.708503398838</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="W45" t="n">
-        <v>704.4711466706365</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="X45" t="n">
-        <v>496.6196464651036</v>
+        <v>1186.912120319555</v>
       </c>
       <c r="Y45" t="n">
-        <v>288.8593477001497</v>
+        <v>979.1518215546007</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975218</v>
@@ -7837,19 +7839,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>321.8764957967128</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V46" t="n">
-        <v>321.8764957967128</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>184.8055467452003</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>103.5056817990681</v>
       </c>
       <c r="N15" t="n">
         <v>455.0874215304797</v>
@@ -9240,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>63.84875129258624</v>
+        <v>63.8487512925867</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878805</v>
       </c>
       <c r="M24" t="n">
-        <v>74.46639351210651</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9960,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>251.9990040344213</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>455.0874215304797</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
         <v>86.93262649026376</v>
@@ -10200,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>351.7205150479949</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q30" t="n">
         <v>99.73813450275543</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>174.18790452568</v>
+        <v>92.88803957954818</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10679,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>303.3627954849607</v>
       </c>
       <c r="P36" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>447.9178485742653</v>
+        <v>351.7205150479951</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>99.73813450275543</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>203.0050015077711</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210651</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,13 +11390,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P45" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.73813450275543</v>
+        <v>145.1148873712468</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22589,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="3">
@@ -22629,13 +22631,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>59.75548455249177</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22644,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>40.91147334704344</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22686,7 +22688,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>68.60374760888197</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22749,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22829,16 +22831,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>149.7324171920411</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>84.01518325627299</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23024,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>160.0089112227261</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23078,10 +23080,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23106,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>56.86390315940167</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>88.97073592337529</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23160,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23303,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>56.79311626624457</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>189.5300546788452</v>
       </c>
     </row>
     <row r="12">
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>202.7107073159006</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>190.5475149467561</v>
       </c>
     </row>
     <row r="13">
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>64.40170098194007</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>126.1137933559313</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>219.4103988718534</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>239.2338213638137</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
@@ -23513,7 +23515,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>129.4223682811415</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>78.52437462028918</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,19 +23624,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>202.7107073159006</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23671,10 +23673,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>126.1137933559314</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082892</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23735,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>306.9349787968916</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>70.41439893299201</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23820,10 +23822,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>57.64149492251671</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>44.25227630748151</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23944,7 +23946,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>212.9428526967576</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>152.3478956280993</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
@@ -23987,7 +23989,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>60.04657667220752</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>75.37275734695893</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,13 +24050,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>140.0198410333367</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24066,7 +24068,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24102,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24111,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>94.9661524333804</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>108.5255533099059</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
         <v>74.67247646141476</v>
@@ -24175,10 +24177,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763988</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>377.3332635675268</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24254,19 +24256,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>142.1652624794208</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,22 +24287,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>99.16983799091362</v>
+        <v>119.379331049967</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>212.9428526967576</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>29.33269180516254</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>268.8928680784757</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24534,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>127.1933053187337</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>58.62691059920436</v>
       </c>
     </row>
     <row r="28">
@@ -24613,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>2.10448446623991</v>
       </c>
       <c r="H28" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>147.5019580580808</v>
@@ -24649,7 +24651,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>112.4956491391823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>315.7598245187568</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24731,19 +24733,19 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>314.89837893714</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24774,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>58.62691059920434</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
         <v>165.8272126914158</v>
@@ -24813,13 +24815,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>35.12571768056986</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>2.10448446623991</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
-        <v>147.5019580580808</v>
+        <v>123.4912971240411</v>
       </c>
       <c r="J31" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>51.80790067264775</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>40.3715573355957</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25050,19 +25052,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>36.66207463683452</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>159.1079591185654</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25126,16 +25128,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>213.1612385756534</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,22 +25204,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>22.39839071576833</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>301.121338003287</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25248,7 +25250,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>55.82867102570993</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -25290,16 +25292,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>58.91773949627168</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25327,7 +25329,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>159.8772180037952</v>
+        <v>61.19408060834057</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25363,7 +25365,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.3046124576955</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.91723044926619</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25400,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>314.7724066110451</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25439,25 +25441,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>139.5303437551935</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25473,22 +25475,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0.691479353781304</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>84.69968995873791</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>2.10448446623974</v>
       </c>
       <c r="H40" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>113.8575656428153</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
         <v>74.67247646141476</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>296.2561911779081</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>284.0569217841154</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25716,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>84.22291199670089</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>6.31899932998482</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
@@ -25764,7 +25766,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>157.9147621220342</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
@@ -25837,13 +25839,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>187.6214750622408</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>3.406974102274177</v>
       </c>
       <c r="U44" t="n">
-        <v>58.67307679934518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>55.90072677574364</v>
+        <v>98.39434213573949</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25995,16 +25997,16 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>128.53187892014</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26077,13 +26079,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>247.3282077095206</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>407153.1926468366</v>
+        <v>407153.1926468365</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>407153.1926468365</v>
+        <v>407153.1926468364</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>407153.1926468365</v>
+        <v>407153.1926468364</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>521253.4412192281</v>
+        <v>521253.441219228</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>521253.4412192277</v>
+        <v>521253.4412192279</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>521253.4412192277</v>
+        <v>521253.4412192279</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>521253.441219228</v>
+        <v>521253.4412192282</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>521253.4412192281</v>
+        <v>521253.441219228</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>521253.4412192276</v>
+        <v>521253.4412192279</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>521253.4412192281</v>
+        <v>521253.441219228</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>521253.441219228</v>
+        <v>521253.4412192282</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>521253.4412192279</v>
+        <v>521253.4412192277</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>521253.4412192276</v>
+        <v>521253.4412192277</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>182776.7397844656</v>
       </c>
       <c r="D2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="E2" t="n">
-        <v>234991.7867710671</v>
+        <v>234991.7867710672</v>
       </c>
       <c r="F2" t="n">
-        <v>234991.7867710671</v>
+        <v>234991.7867710672</v>
       </c>
       <c r="G2" t="n">
         <v>234991.7867710671</v>
       </c>
       <c r="H2" t="n">
+        <v>234991.7867710672</v>
+      </c>
+      <c r="I2" t="n">
         <v>234991.7867710671</v>
-      </c>
-      <c r="I2" t="n">
-        <v>234991.7867710672</v>
       </c>
       <c r="J2" t="n">
         <v>234991.7867710672</v>
@@ -26341,7 +26343,7 @@
         <v>234991.7867710672</v>
       </c>
       <c r="L2" t="n">
-        <v>234991.7867710672</v>
+        <v>234991.7867710671</v>
       </c>
       <c r="M2" t="n">
         <v>234991.7867710671</v>
@@ -26353,7 +26355,7 @@
         <v>234991.7867710672</v>
       </c>
       <c r="P2" t="n">
-        <v>234991.7867710672</v>
+        <v>234991.7867710671</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252467</v>
+        <v>166940.1701252468</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244792</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
         <v>8547.111069342402</v>
@@ -26476,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375756</v>
@@ -26494,16 +26496,16 @@
         <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375756</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45178.92841981383</v>
+        <v>45178.92841981381</v>
       </c>
       <c r="C6" t="n">
         <v>125948.3599513615</v>
@@ -26528,16 +26530,16 @@
         <v>125948.3599513616</v>
       </c>
       <c r="E6" t="n">
-        <v>31337.21676484228</v>
+        <v>31337.2167648422</v>
       </c>
       <c r="F6" t="n">
+        <v>198277.3868900891</v>
+      </c>
+      <c r="G6" t="n">
+        <v>198277.3868900889</v>
+      </c>
+      <c r="H6" t="n">
         <v>198277.386890089</v>
-      </c>
-      <c r="G6" t="n">
-        <v>198277.386890089</v>
-      </c>
-      <c r="H6" t="n">
-        <v>198277.3868900889</v>
       </c>
       <c r="I6" t="n">
         <v>198277.386890089</v>
@@ -26561,7 +26563,7 @@
         <v>198277.3868900891</v>
       </c>
       <c r="P6" t="n">
-        <v>198277.3868900891</v>
+        <v>198277.386890089</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="G3" t="n">
         <v>146.571804419537</v>
@@ -26796,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969023</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011537</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046567</v>
       </c>
       <c r="I11" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629222</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645908</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044664</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971771</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737673</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134788</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809229</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.315267654789193</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409526</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253949</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864772</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975596</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100593</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601705</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422068</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177522</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L13" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323131</v>
       </c>
       <c r="M13" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141111</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039458</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172071</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118893</v>
       </c>
       <c r="T13" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864766</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L23" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M23" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N23" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T23" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I24" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K24" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R24" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J25" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
         <v>39.29566048323129</v>
@@ -32880,7 +32882,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O25" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
         <v>31.96707026225442</v>
@@ -32889,16 +32891,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34784,10 +34786,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.0611576216797</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
       </c>
       <c r="M11" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N11" t="n">
         <v>313.0722467132387</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680308</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696148</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7391464461244</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M12" t="n">
-        <v>122.5531462318296</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243109</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
-        <v>81.01564128325168</v>
+        <v>81.0156412832517</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L15" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>41.25328128569749</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q15" t="n">
         <v>110.3391532330937</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P16" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -36209,7 +36211,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>14.50290175900885</v>
+        <v>14.50290175900931</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K23" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L23" t="n">
         <v>274.8802469209098</v>
@@ -36376,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054582</v>
       </c>
       <c r="M24" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
         <v>405.7415719969023</v>
@@ -36516,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M25" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P25" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>189.7466035210507</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
         <v>405.7415719969023</v>
@@ -36689,10 +36691,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,13 +36922,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>302.3746655144175</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>177.5326105223148</v>
@@ -37157,7 +37159,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>124.8420549921026</v>
+        <v>43.54219004597078</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37166,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366292</v>
@@ -37397,13 +37399,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
-        <v>326.276269873291</v>
+        <v>235.7767460815221</v>
       </c>
       <c r="P36" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37631,13 +37633,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>398.571999040688</v>
+        <v>302.3746655144177</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P41" t="n">
-        <v>175.2982096635897</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
         <v>53.63987744680304</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>116.0723750175074</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>403.4526632366292</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N42" t="n">
         <v>405.7415719969023</v>
@@ -38096,7 +38098,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38108,13 +38110,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
